--- a/data/sub_comercial_bracatinga.xlsx
+++ b/data/sub_comercial_bracatinga.xlsx
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
-  <si>
-    <t xml:space="preserve">Trat</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">REP</t>
   </si>
@@ -41,114 +38,6 @@
   </si>
   <si>
     <t xml:space="preserve">SM%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1R3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1R4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1R5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1R6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T10R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T10R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T10R3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T10R4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T10R5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T10R6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T15R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T15R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T15R3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T15R4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T15R5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T15R6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T20R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T20R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T20R3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T20R4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T20R5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T20R6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T30R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T30R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T30R3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T30R4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T30R5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T30R6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T50R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T50R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T50R3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T50R4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T50R5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T50R6</t>
   </si>
 </sst>
 </file>
@@ -292,67 +181,67 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -607,8 +496,8 @@
   </sheetPr>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I45" activeCellId="0" sqref="I45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M24" activeCellId="0" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -616,7 +505,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -635,835 +524,724 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="n">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="B2" s="4" t="n">
+        <v>1.21</v>
+      </c>
       <c r="C2" s="4" t="n">
-        <v>1.21</v>
+        <v>88.8</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>88.8</v>
       </c>
       <c r="E2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C3" s="4" t="n">
         <v>88.8</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>1.2</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>88.8</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>88.8</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="n">
         <v>11.1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="n">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="B4" s="4" t="n">
+        <v>1.56</v>
+      </c>
       <c r="C4" s="4" t="n">
-        <v>1.56</v>
+        <v>100</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>100</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="n">
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="B5" s="4" t="n">
+        <v>1.03</v>
+      </c>
       <c r="C5" s="4" t="n">
-        <v>1.03</v>
+        <v>88.8</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>88.8</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>88.8</v>
+        <v>0</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="n">
         <v>11.1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3" t="n">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="B6" s="4" t="n">
+        <v>0.8</v>
+      </c>
       <c r="C6" s="4" t="n">
-        <v>0.8</v>
+        <v>77.7</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>77.7</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>77.7</v>
+        <v>0</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="n">
         <v>33.3</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="n">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="B7" s="4" t="n">
+        <v>0.86</v>
+      </c>
       <c r="C7" s="4" t="n">
-        <v>0.86</v>
+        <v>77.7</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>77.7</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>77.7</v>
+        <v>0</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="n">
         <v>33.3</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="5" t="n">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
         <v>2</v>
       </c>
+      <c r="B8" s="6" t="n">
+        <v>0.66</v>
+      </c>
       <c r="C8" s="6" t="n">
-        <v>0.66</v>
+        <v>66.6</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>66.6</v>
+        <v>55.5</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>55.5</v>
+        <v>11.1</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="G8" s="6" t="n">
         <v>33.3</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="5" t="n">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
         <v>2</v>
       </c>
+      <c r="B9" s="6" t="n">
+        <v>0.51</v>
+      </c>
       <c r="C9" s="6" t="n">
-        <v>0.51</v>
+        <v>55.5</v>
       </c>
       <c r="D9" s="6" t="n">
         <v>55.5</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>55.5</v>
+        <v>0</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="6" t="n">
         <v>44.4</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="5" t="n">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
         <v>2</v>
       </c>
+      <c r="B10" s="6" t="n">
+        <v>0.52</v>
+      </c>
       <c r="C10" s="6" t="n">
-        <v>0.52</v>
+        <v>55.5</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>55.5</v>
+        <v>33.2</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>33.2</v>
+        <v>22.2</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="G10" s="6" t="n">
         <v>44.4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="5" t="n">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
         <v>2</v>
       </c>
+      <c r="B11" s="6" t="n">
+        <v>0.45</v>
+      </c>
       <c r="C11" s="6" t="n">
-        <v>0.45</v>
+        <v>44.4</v>
       </c>
       <c r="D11" s="6" t="n">
         <v>44.4</v>
       </c>
       <c r="E11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" s="6" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="C12" s="6" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6" t="n">
         <v>44.4</v>
       </c>
-      <c r="F11" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>55.5</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="5" t="n">
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="6" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="D12" s="6" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="E12" s="6" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="F12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>44.4</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="5" t="n">
-        <v>2</v>
+      <c r="B13" s="6" t="n">
+        <v>0.31</v>
       </c>
       <c r="C13" s="6" t="n">
-        <v>0.31</v>
+        <v>33.3</v>
       </c>
       <c r="D13" s="6" t="n">
         <v>33.3</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>33.3</v>
+        <v>0</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6" t="n">
-        <v>66.6</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="7" t="n">
+        <v>66.6</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="n">
         <v>3</v>
       </c>
+      <c r="B14" s="8" t="n">
+        <v>0.91</v>
+      </c>
       <c r="C14" s="8" t="n">
-        <v>0.91</v>
+        <v>100</v>
       </c>
       <c r="D14" s="8" t="n">
         <v>100</v>
       </c>
       <c r="E14" s="8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F14" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="G14" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="7" t="n">
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="n">
         <v>3</v>
       </c>
+      <c r="B15" s="8" t="n">
+        <v>0.76</v>
+      </c>
       <c r="C15" s="8" t="n">
-        <v>0.76</v>
+        <v>77.7</v>
       </c>
       <c r="D15" s="8" t="n">
         <v>77.7</v>
       </c>
       <c r="E15" s="8" t="n">
-        <v>77.7</v>
+        <v>0</v>
       </c>
       <c r="F15" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8" t="n">
         <v>22.2</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="7" t="n">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="n">
         <v>3</v>
       </c>
+      <c r="B16" s="8" t="n">
+        <v>0.74</v>
+      </c>
       <c r="C16" s="8" t="n">
-        <v>0.74</v>
+        <v>77.7</v>
       </c>
       <c r="D16" s="8" t="n">
         <v>77.7</v>
       </c>
       <c r="E16" s="8" t="n">
-        <v>77.7</v>
+        <v>0</v>
       </c>
       <c r="F16" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8" t="n">
         <v>22.2</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="7" t="n">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="n">
         <v>3</v>
       </c>
+      <c r="B17" s="8" t="n">
+        <v>0.73</v>
+      </c>
       <c r="C17" s="8" t="n">
-        <v>0.73</v>
+        <v>77.7</v>
       </c>
       <c r="D17" s="8" t="n">
-        <v>77.7</v>
+        <v>55.5</v>
       </c>
       <c r="E17" s="8" t="n">
-        <v>55.5</v>
+        <v>22.2</v>
       </c>
       <c r="F17" s="8" t="n">
         <v>22.2</v>
       </c>
-      <c r="G17" s="8" t="n">
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" s="8" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="D18" s="8" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="E18" s="8" t="n">
         <v>22.2</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" s="8" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="D18" s="8" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="E18" s="8" t="n">
-        <v>55.5</v>
       </c>
       <c r="F18" s="8" t="n">
         <v>22.2</v>
       </c>
-      <c r="G18" s="8" t="n">
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="7" t="n">
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="n">
         <v>3</v>
       </c>
+      <c r="B19" s="8" t="n">
+        <v>0.63</v>
+      </c>
       <c r="C19" s="8" t="n">
-        <v>0.63</v>
+        <v>66.6</v>
       </c>
       <c r="D19" s="8" t="n">
         <v>66.6</v>
       </c>
       <c r="E19" s="8" t="n">
-        <v>66.6</v>
+        <v>0</v>
       </c>
       <c r="F19" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="8" t="n">
         <v>33.3</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="9" t="n">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="n">
         <v>4</v>
       </c>
+      <c r="B20" s="10" t="n">
+        <v>0.84</v>
+      </c>
       <c r="C20" s="10" t="n">
-        <v>0.84</v>
+        <v>88.8</v>
       </c>
       <c r="D20" s="10" t="n">
         <v>88.8</v>
       </c>
       <c r="E20" s="10" t="n">
-        <v>88.8</v>
+        <v>0</v>
       </c>
       <c r="F20" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="10" t="n">
         <v>11.1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="9" t="n">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="n">
         <v>4</v>
       </c>
+      <c r="B21" s="10" t="n">
+        <v>0.51</v>
+      </c>
       <c r="C21" s="10" t="n">
-        <v>0.51</v>
+        <v>66.6</v>
       </c>
       <c r="D21" s="10" t="n">
         <v>66.6</v>
       </c>
       <c r="E21" s="10" t="n">
-        <v>66.6</v>
+        <v>0</v>
       </c>
       <c r="F21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="10" t="n">
         <v>33.3</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="9" t="n">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="n">
         <v>4</v>
       </c>
+      <c r="B22" s="10" t="n">
+        <v>0.4</v>
+      </c>
       <c r="C22" s="10" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="D22" s="10" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="E22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="10" t="n">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B23" s="10" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C23" s="10" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="D23" s="10" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="E23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="10" t="n">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B24" s="10" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C24" s="10" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="D24" s="10" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="E24" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="10" t="n">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B25" s="10" t="n">
         <v>0.4</v>
       </c>
-      <c r="D22" s="10" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="E22" s="10" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="F22" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="10" t="n">
+      <c r="C25" s="10" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="D25" s="10" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="E25" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="10" t="n">
         <v>44.4</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C23" s="10" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D23" s="10" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="E23" s="10" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="F23" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="10" t="n">
-        <v>44.4</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C24" s="10" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="D24" s="10" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="E24" s="10" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="F24" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="10" t="n">
-        <v>44.4</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C25" s="10" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D25" s="10" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="E25" s="10" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="F25" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="10" t="n">
-        <v>44.4</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="11" t="n">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="11" t="n">
         <v>5</v>
       </c>
+      <c r="B26" s="12" t="n">
+        <v>0.97</v>
+      </c>
       <c r="C26" s="12" t="n">
-        <v>0.97</v>
+        <v>100</v>
       </c>
       <c r="D26" s="12" t="n">
         <v>100</v>
       </c>
       <c r="E26" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B27" s="12" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="C27" s="12" t="n">
+        <v>77.7</v>
+      </c>
+      <c r="D27" s="12" t="n">
+        <v>66.6</v>
+      </c>
+      <c r="E27" s="12" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="F27" s="12" t="n">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B28" s="12" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="C28" s="12" t="n">
+        <v>66.6</v>
+      </c>
+      <c r="D28" s="12" t="n">
+        <v>66.6</v>
+      </c>
+      <c r="E28" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="12" t="n">
+        <v>33.3</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" s="12" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="C29" s="12" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="D29" s="12" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="E29" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="12" t="n">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" s="12" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C30" s="12" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="D30" s="12" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="E30" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" s="12" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="C31" s="12" t="n">
+        <v>66.6</v>
+      </c>
+      <c r="D31" s="12" t="n">
+        <v>66.6</v>
+      </c>
+      <c r="E31" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="12" t="n">
+        <v>33.3</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="B32" s="14" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C32" s="14" t="n">
         <v>100</v>
-      </c>
-      <c r="F26" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C27" s="12" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="D27" s="12" t="n">
-        <v>77.7</v>
-      </c>
-      <c r="E27" s="12" t="n">
-        <v>66.6</v>
-      </c>
-      <c r="F27" s="12" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="G27" s="12" t="n">
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C28" s="12" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="D28" s="12" t="n">
-        <v>66.6</v>
-      </c>
-      <c r="E28" s="12" t="n">
-        <v>66.6</v>
-      </c>
-      <c r="F28" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="12" t="n">
-        <v>33.3</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C29" s="12" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="D29" s="12" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="E29" s="12" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="F29" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="12" t="n">
-        <v>44.4</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C30" s="12" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="D30" s="12" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="E30" s="12" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="F30" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="12" t="n">
-        <v>44.4</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C31" s="12" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="D31" s="12" t="n">
-        <v>66.6</v>
-      </c>
-      <c r="E31" s="12" t="n">
-        <v>66.6</v>
-      </c>
-      <c r="F31" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="12" t="n">
-        <v>33.3</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C32" s="14" t="n">
-        <v>0.97</v>
       </c>
       <c r="D32" s="14" t="n">
         <v>100</v>
       </c>
       <c r="E32" s="14" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="G32" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="13" t="n">
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="13" t="n">
         <v>6</v>
       </c>
+      <c r="B33" s="14" t="n">
+        <v>0.73</v>
+      </c>
       <c r="C33" s="14" t="n">
-        <v>0.73</v>
+        <v>88.8</v>
       </c>
       <c r="D33" s="14" t="n">
         <v>88.8</v>
       </c>
       <c r="E33" s="14" t="n">
-        <v>88.8</v>
+        <v>0</v>
       </c>
       <c r="F33" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="14" t="n">
         <v>11.1</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="13" t="n">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="13" t="n">
         <v>6</v>
       </c>
+      <c r="B34" s="14" t="n">
+        <v>0.42</v>
+      </c>
       <c r="C34" s="14" t="n">
-        <v>0.42</v>
+        <v>66.6</v>
       </c>
       <c r="D34" s="14" t="n">
         <v>66.6</v>
       </c>
       <c r="E34" s="14" t="n">
-        <v>66.6</v>
+        <v>0</v>
       </c>
       <c r="F34" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="14" t="n">
         <v>33.3</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="13" t="n">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="13" t="n">
         <v>6</v>
       </c>
+      <c r="B35" s="14" t="n">
+        <v>0.48</v>
+      </c>
       <c r="C35" s="14" t="n">
-        <v>0.48</v>
+        <v>77.7</v>
       </c>
       <c r="D35" s="14" t="n">
         <v>77.7</v>
       </c>
       <c r="E35" s="14" t="n">
-        <v>77.7</v>
+        <v>0</v>
       </c>
       <c r="F35" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="14" t="n">
         <v>22.2</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="13" t="n">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="13" t="n">
         <v>6</v>
       </c>
+      <c r="B36" s="14" t="n">
+        <v>0.51</v>
+      </c>
       <c r="C36" s="14" t="n">
-        <v>0.51</v>
+        <v>66.6</v>
       </c>
       <c r="D36" s="14" t="n">
         <v>66.6</v>
       </c>
       <c r="E36" s="14" t="n">
-        <v>66.6</v>
+        <v>0</v>
       </c>
       <c r="F36" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="14" t="n">
         <v>33.3</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="13" t="n">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="13" t="n">
         <v>6</v>
       </c>
+      <c r="B37" s="14" t="n">
+        <v>0.61</v>
+      </c>
       <c r="C37" s="14" t="n">
-        <v>0.61</v>
+        <v>77.7</v>
       </c>
       <c r="D37" s="14" t="n">
         <v>77.7</v>
       </c>
       <c r="E37" s="14" t="n">
-        <v>77.7</v>
+        <v>0</v>
       </c>
       <c r="F37" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="14" t="n">
         <v>22.2</v>
       </c>
     </row>
